--- a/static/download/AMZ任务导入模板.xlsx
+++ b/static/download/AMZ任务导入模板.xlsx
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下单时间(必填)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关键字(必填)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>服务类型(必填)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FBA/FBM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Review/FeedBack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关键字位置(必填)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,6 +119,18 @@
   </si>
   <si>
     <t>示例数据,导入前删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单时间(必填,注意时间格式)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务类型(选填:Review,FeedBack,Review/FeedBack)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review/FeedBack(填英文注意大小写)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -182,7 +182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +207,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -225,7 +231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -251,6 +257,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -565,13 +574,13 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.21875" customWidth="1"/>
     <col min="4" max="4" width="21.88671875" customWidth="1"/>
     <col min="5" max="5" width="22.21875" customWidth="1"/>
@@ -580,7 +589,7 @@
     <col min="8" max="8" width="21" customWidth="1"/>
     <col min="9" max="9" width="23.21875" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
-    <col min="11" max="11" width="21.88671875" customWidth="1"/>
+    <col min="11" max="11" width="53.77734375" customWidth="1"/>
     <col min="12" max="12" width="13.5546875" customWidth="1"/>
     <col min="13" max="13" width="15.44140625" customWidth="1"/>
     <col min="14" max="14" width="30.88671875" customWidth="1"/>
@@ -593,49 +602,49 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="P1" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -670,13 +679,13 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="10:10">

--- a/static/download/AMZ任务导入模板.xlsx
+++ b/static/download/AMZ任务导入模板.xlsx
@@ -122,15 +122,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下单时间(必填,注意时间格式)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>服务类型(选填:Review,FeedBack,Review/FeedBack)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Review/FeedBack(填英文注意大小写)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷手操作时间(必填,注意时间格式)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +574,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -602,7 +602,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>9</v>
@@ -629,7 +629,7 @@
         <v>21</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>15</v>
@@ -679,7 +679,7 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
